--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="111">
   <si>
     <t>Sezione</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.5</t>
+    <t>193.3</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -281,7 +281,7 @@
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>evento.trascrizioneNascita.autoritaMittente</t>
+    <t>evento.trascrizioneNascita.atto.enteEstero</t>
   </si>
   <si>
     <t>Provincia ente</t>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -391,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -401,7 +413,7 @@
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2050,7 +2062,7 @@
         <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
@@ -2059,7 +2071,7 @@
         <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2070,7 +2082,7 @@
         <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>8</v>
@@ -2079,7 +2091,7 @@
         <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2090,16 +2102,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2110,16 +2122,16 @@
         <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2127,19 +2139,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2147,19 +2159,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2167,21 +2179,101 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E89" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,2}</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,1}</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -403,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -415,6 +427,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="47.90234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -436,65 +449,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -516,1765 +541,2032 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="116">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,28 +32,31 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Sentenza straniera</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.3</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Sentenza straniera</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.3</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -542,2031 +545,2031 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -107,7 +107,7 @@
     <t>cognome</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,2}</t>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
   </si>
   <si>
     <t>Nome</t>
@@ -242,7 +242,7 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,1}</t>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -430,7 +430,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="47.90234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -98,49 +98,49 @@
     <t>Cognome</t>
   </si>
   <si>
+    <t>evento.madre</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>evento.madre</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
   </si>
   <si>
     <t>idProvinciaNascita</t>
@@ -648,19 +648,19 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -668,22 +668,22 @@
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -691,22 +691,22 @@
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -714,22 +714,22 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -737,22 +737,22 @@
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -760,22 +760,22 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -783,13 +783,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>43</v>
@@ -798,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -809,10 +809,10 @@
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>45</v>
@@ -821,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -832,10 +832,10 @@
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -844,7 +844,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -855,10 +855,10 @@
         <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -867,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -878,10 +878,10 @@
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -890,7 +890,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -901,10 +901,10 @@
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>53</v>
@@ -913,7 +913,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -924,10 +924,10 @@
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -947,10 +947,10 @@
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
@@ -959,7 +959,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -970,10 +970,10 @@
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>59</v>
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -993,10 +993,10 @@
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>61</v>
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -1016,10 +1016,10 @@
         <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>63</v>
@@ -1028,7 +1028,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -1039,10 +1039,10 @@
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>65</v>
@@ -1051,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1062,10 +1062,10 @@
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>67</v>
@@ -1074,7 +1074,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -1088,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>69</v>
@@ -1097,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -1108,10 +1108,10 @@
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>71</v>
@@ -1120,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -1131,10 +1131,10 @@
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>73</v>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1154,13 +1154,13 @@
         <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1174,7 +1174,7 @@
         <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1183,7 +1183,7 @@
         <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1206,7 +1206,7 @@
         <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1220,7 +1220,7 @@
         <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1229,7 +1229,7 @@
         <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1243,7 +1243,7 @@
         <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1252,7 +1252,7 @@
         <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1266,7 +1266,7 @@
         <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1275,7 +1275,7 @@
         <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1289,10 +1289,10 @@
         <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>75</v>
@@ -1315,7 +1315,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>75</v>
@@ -1338,7 +1338,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>75</v>
@@ -1361,7 +1361,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>75</v>
@@ -1384,7 +1384,7 @@
         <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>75</v>
@@ -1407,7 +1407,7 @@
         <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>75</v>
@@ -1430,7 +1430,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>75</v>
@@ -1453,7 +1453,7 @@
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>75</v>
@@ -1476,7 +1476,7 @@
         <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>75</v>
@@ -1499,7 +1499,7 @@
         <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>75</v>
@@ -1522,7 +1522,7 @@
         <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>75</v>
@@ -1545,7 +1545,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>75</v>
@@ -1568,7 +1568,7 @@
         <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>75</v>
@@ -1614,7 +1614,7 @@
         <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>75</v>
@@ -1637,7 +1637,7 @@
         <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>75</v>
@@ -1660,13 +1660,13 @@
         <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1680,7 +1680,7 @@
         <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -1689,7 +1689,7 @@
         <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1703,7 +1703,7 @@
         <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -1712,7 +1712,7 @@
         <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1726,7 +1726,7 @@
         <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -1735,7 +1735,7 @@
         <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1749,7 +1749,7 @@
         <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -1758,7 +1758,7 @@
         <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1772,7 +1772,7 @@
         <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -1781,7 +1781,7 @@
         <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1795,10 +1795,10 @@
         <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>78</v>
@@ -1821,7 +1821,7 @@
         <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>78</v>
@@ -1844,7 +1844,7 @@
         <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>78</v>
@@ -1867,7 +1867,7 @@
         <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>78</v>
@@ -1890,7 +1890,7 @@
         <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>78</v>
@@ -1913,7 +1913,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>78</v>
@@ -1936,7 +1936,7 @@
         <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>78</v>
@@ -1959,7 +1959,7 @@
         <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>78</v>
@@ -1982,7 +1982,7 @@
         <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>78</v>
@@ -2005,7 +2005,7 @@
         <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>78</v>
@@ -2028,7 +2028,7 @@
         <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>78</v>
@@ -2051,7 +2051,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>78</v>
@@ -2074,7 +2074,7 @@
         <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>78</v>
@@ -2120,7 +2120,7 @@
         <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>78</v>
@@ -2143,7 +2143,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>78</v>
@@ -2258,7 +2258,7 @@
         <v>89</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>81</v>
@@ -2373,7 +2373,7 @@
         <v>95</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>94</v>
@@ -2396,7 +2396,7 @@
         <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>94</v>
@@ -2419,7 +2419,7 @@
         <v>99</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>94</v>
@@ -2442,7 +2442,7 @@
         <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>94</v>
@@ -2465,7 +2465,7 @@
         <v>103</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>94</v>
@@ -2488,7 +2488,7 @@
         <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>94</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -2143,7 +2143,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>78</v>
@@ -2281,7 +2281,7 @@
         <v>91</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>81</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -164,6 +164,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -273,6 +279,9 @@
   </si>
   <si>
     <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -418,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1085,7 +1094,7 @@
         <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>28</v>
@@ -1108,7 +1117,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>28</v>
@@ -1148,571 +1157,571 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1723,19 +1732,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1755,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1769,19 +1778,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1801,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1824,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1847,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1861,19 +1870,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1884,19 +1893,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1907,19 +1916,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1930,19 +1939,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1953,19 +1962,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1976,19 +1985,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1999,19 +2008,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2022,19 +2031,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2045,19 +2054,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2077,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2091,19 +2100,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2123,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2146,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2163,16 +2172,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2186,16 +2195,16 @@
         <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2209,16 +2218,16 @@
         <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2238,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2252,19 +2261,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2275,19 +2284,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2307,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2330,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2353,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2376,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2399,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2422,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2445,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2468,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2491,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2514,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2537,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2551,24 +2560,116 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -2218,7 +2221,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2238,19 +2241,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2264,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2287,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2307,7 +2310,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>50</v>
@@ -2316,10 +2319,10 @@
         <v>42</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2333,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2356,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2379,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2402,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2422,19 +2425,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2448,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2468,19 +2471,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2494,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2517,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2540,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2563,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2583,19 +2586,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2606,19 +2609,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2629,19 +2632,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2652,19 +2655,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -2221,7 +2218,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2241,19 +2238,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2261,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2284,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2310,7 +2307,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>50</v>
@@ -2319,10 +2316,10 @@
         <v>42</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2330,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2353,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2376,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2399,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2422,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2445,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2468,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2491,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2514,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2537,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2560,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2583,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2606,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2629,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2652,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Padre</t>
@@ -430,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1183,732 +1207,732 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1943,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1966,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1989,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1988,19 +2012,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2035,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2058,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2081,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2104,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2127,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2150,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2173,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2196,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2219,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2242,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2265,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2288,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2311,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2334,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2357,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2380,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2403,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2426,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2449,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2472,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2495,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2518,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2541,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2564,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2587,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2610,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2633,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2656,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2655,24 +2679,300 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="B107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -113,6 +113,15 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -140,9 +149,6 @@
     <t>Provincia di nascita</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>idProvinciaNascita</t>
   </si>
   <si>
@@ -170,13 +176,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -730,13 +736,13 @@
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -750,7 +756,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -759,7 +765,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -773,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -782,7 +788,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -796,7 +802,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -805,7 +811,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -819,10 +825,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>28</v>
@@ -845,7 +851,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
@@ -868,7 +874,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -891,7 +897,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>28</v>
@@ -914,7 +920,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>28</v>
@@ -937,7 +943,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>28</v>
@@ -960,7 +966,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
@@ -983,7 +989,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>28</v>
@@ -1006,7 +1012,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
@@ -1029,7 +1035,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
@@ -1052,7 +1058,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>28</v>
@@ -1075,7 +1081,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>28</v>
@@ -1098,7 +1104,7 @@
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>28</v>
@@ -1121,7 +1127,7 @@
         <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>28</v>
@@ -1144,7 +1150,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>28</v>
@@ -1167,7 +1173,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>28</v>
@@ -1190,7 +1196,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>28</v>
@@ -1213,7 +1219,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>28</v>
@@ -1236,7 +1242,7 @@
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>28</v>
@@ -1259,7 +1265,7 @@
         <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>28</v>
@@ -1282,7 +1288,7 @@
         <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>28</v>
@@ -1299,686 +1305,686 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1995,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2248,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2271,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2294,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2340,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2363,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2409,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2455,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2501,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2524,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2547,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2564,19 +2570,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2593,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2616,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2662,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2685,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2708,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2731,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2754,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2777,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2800,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2823,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2846,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2869,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2892,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2909,19 +2915,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2932,19 +2938,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2955,24 +2961,93 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="B112" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1173,7 +1179,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>28</v>
@@ -1196,7 +1202,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>28</v>
@@ -1328,709 +1334,709 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2047,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2093,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2116,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2139,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2162,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2185,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2208,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2231,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2254,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2277,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2323,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2340,19 +2346,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2363,19 +2369,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2386,19 +2392,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2409,19 +2415,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2461,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2484,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2530,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2553,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2576,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2599,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2622,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2645,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2668,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2691,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2714,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2760,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2783,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2800,19 +2806,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2829,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2846,19 +2852,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2875,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2892,19 +2898,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2915,19 +2921,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2944,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2967,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2990,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3007,19 +3013,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3030,24 +3036,93 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E112" s="2" t="s">
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="B115" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1202,7 +1208,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>28</v>
@@ -1225,7 +1231,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>28</v>
@@ -1357,732 +1363,732 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2122,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2145,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2168,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2191,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2208,19 +2214,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2254,19 +2260,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2277,19 +2283,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2306,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2323,19 +2329,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2352,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2375,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2392,19 +2398,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2415,19 +2421,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2444,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2467,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2490,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2513,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2530,19 +2536,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2553,19 +2559,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2582,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2599,19 +2605,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2622,19 +2628,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2645,19 +2651,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2668,19 +2674,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2697,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2720,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2743,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2766,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2789,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2806,19 +2812,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2835,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2858,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2881,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2950,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2967,19 +2973,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2990,19 +2996,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3013,19 +3019,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3036,19 +3042,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3065,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3088,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3105,24 +3111,93 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E115" s="2" t="s">
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="B118" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,6 +300,81 @@
   </si>
   <si>
     <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -472,17 +547,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
   </cols>
@@ -2772,7 +2847,7 @@
         <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>98</v>
@@ -2784,7 +2859,7 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
@@ -2792,22 +2867,22 @@
         <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
@@ -2815,22 +2890,22 @@
         <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
@@ -2838,7 +2913,7 @@
         <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>34</v>
@@ -2847,13 +2922,13 @@
         <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
@@ -2861,22 +2936,22 @@
         <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
@@ -2884,7 +2959,7 @@
         <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>34</v>
@@ -2893,13 +2968,13 @@
         <v>98</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
@@ -2907,7 +2982,7 @@
         <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>34</v>
@@ -2916,145 +2991,145 @@
         <v>98</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3140,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3163,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3186,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3209,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3232,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3180,24 +3255,300 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -547,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2841,53 +2847,53 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>103</v>
@@ -2896,7 +2902,7 @@
         <v>34</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>104</v>
@@ -2905,12 +2911,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>105</v>
@@ -2919,7 +2925,7 @@
         <v>34</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>106</v>
@@ -2928,12 +2934,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>107</v>
@@ -2942,7 +2948,7 @@
         <v>34</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>108</v>
@@ -2951,12 +2957,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>109</v>
@@ -2965,44 +2971,44 @@
         <v>34</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>112</v>
@@ -3011,44 +3017,44 @@
         <v>34</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>115</v>
@@ -3057,7 +3063,7 @@
         <v>34</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>116</v>
@@ -3066,12 +3072,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>117</v>
@@ -3080,7 +3086,7 @@
         <v>34</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>118</v>
@@ -3089,12 +3095,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>119</v>
@@ -3103,7 +3109,7 @@
         <v>34</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>120</v>
@@ -3112,44 +3118,44 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>126</v>
@@ -3163,7 +3169,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>127</v>
@@ -3172,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>128</v>
@@ -3186,19 +3192,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3209,16 +3215,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>131</v>
@@ -3232,16 +3238,16 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>133</v>
@@ -3255,7 +3261,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>134</v>
@@ -3264,7 +3270,7 @@
         <v>34</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>135</v>
@@ -3278,19 +3284,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3301,16 +3307,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>126</v>
@@ -3324,7 +3330,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>127</v>
@@ -3333,7 +3339,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>128</v>
@@ -3347,19 +3353,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3370,7 +3376,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>140</v>
@@ -3379,7 +3385,7 @@
         <v>34</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>141</v>
@@ -3393,7 +3399,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>142</v>
@@ -3402,7 +3408,7 @@
         <v>34</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>143</v>
@@ -3416,7 +3422,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>144</v>
@@ -3425,7 +3431,7 @@
         <v>34</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>145</v>
@@ -3439,7 +3445,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>146</v>
@@ -3448,7 +3454,7 @@
         <v>34</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>147</v>
@@ -3462,7 +3468,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>148</v>
@@ -3471,7 +3477,7 @@
         <v>34</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>149</v>
@@ -3485,19 +3491,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3508,16 +3514,16 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>155</v>
@@ -3531,24 +3537,47 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E130" s="2" t="s">
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
+      <c r="B131" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,12 +300,6 @@
   </si>
   <si>
     <t>Firmatario</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -553,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2847,53 +2841,53 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>103</v>
@@ -2902,7 +2896,7 @@
         <v>34</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>104</v>
@@ -2911,12 +2905,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>105</v>
@@ -2925,7 +2919,7 @@
         <v>34</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>106</v>
@@ -2934,12 +2928,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>107</v>
@@ -2948,7 +2942,7 @@
         <v>34</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>108</v>
@@ -2957,12 +2951,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>109</v>
@@ -2971,44 +2965,44 @@
         <v>34</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>112</v>
@@ -3017,44 +3011,44 @@
         <v>34</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>115</v>
@@ -3063,7 +3057,7 @@
         <v>34</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>116</v>
@@ -3072,12 +3066,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>117</v>
@@ -3086,7 +3080,7 @@
         <v>34</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>118</v>
@@ -3095,12 +3089,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>119</v>
@@ -3109,7 +3103,7 @@
         <v>34</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>120</v>
@@ -3118,44 +3112,44 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>126</v>
@@ -3169,7 +3163,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>127</v>
@@ -3178,7 +3172,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>128</v>
@@ -3192,19 +3186,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3215,16 +3209,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>131</v>
@@ -3238,16 +3232,16 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>133</v>
@@ -3261,7 +3255,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>134</v>
@@ -3270,7 +3264,7 @@
         <v>34</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>135</v>
@@ -3284,19 +3278,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3307,16 +3301,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>126</v>
@@ -3330,7 +3324,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>127</v>
@@ -3339,7 +3333,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>128</v>
@@ -3353,19 +3347,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3376,7 +3370,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>140</v>
@@ -3385,7 +3379,7 @@
         <v>34</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>141</v>
@@ -3399,7 +3393,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>142</v>
@@ -3408,7 +3402,7 @@
         <v>34</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>143</v>
@@ -3422,7 +3416,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>144</v>
@@ -3431,7 +3425,7 @@
         <v>34</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>145</v>
@@ -3445,7 +3439,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>146</v>
@@ -3454,7 +3448,7 @@
         <v>34</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>147</v>
@@ -3468,7 +3462,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>148</v>
@@ -3477,7 +3471,7 @@
         <v>34</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>149</v>
@@ -3491,19 +3485,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3514,16 +3508,16 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>155</v>
@@ -3537,47 +3531,24 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -553,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -875,7 +887,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>28</v>
@@ -898,7 +910,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>28</v>
@@ -944,7 +956,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
@@ -967,7 +979,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -1312,7 +1324,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>28</v>
@@ -1358,7 +1370,7 @@
         <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>28</v>
@@ -1467,801 +1479,801 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2284,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2307,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2330,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2353,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2376,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,19 +2399,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2422,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2445,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2468,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2491,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2502,19 +2514,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2525,19 +2537,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2548,19 +2560,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2571,19 +2583,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2594,19 +2606,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2617,19 +2629,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2640,19 +2652,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2663,19 +2675,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2686,19 +2698,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2709,19 +2721,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2732,19 +2744,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2755,19 +2767,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2778,19 +2790,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2801,19 +2813,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2824,19 +2836,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2847,19 +2859,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2870,433 +2882,433 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3307,19 +3319,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3330,19 +3342,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3353,19 +3365,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3376,19 +3388,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3399,19 +3411,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C124" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3422,19 +3434,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3445,19 +3457,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3468,19 +3480,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3491,19 +3503,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3514,19 +3526,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3537,19 +3549,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3560,24 +3572,162 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>19</v>
       </c>
     </row>
